--- a/assets/excel/2021_1-4-1.xlsx
+++ b/assets/excel/2021_1-4-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C371C2E-C247-449C-ACB1-7EFA6BAF0AD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3FAFB5-34A8-4BED-9F05-CB9C95CAFB03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{A7335662-3164-4D09-A82E-E13CC13547D6}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <t>Zuzüge über die Bundesgrenzen nach Niedersachsen</t>
   </si>
   <si>
-    <t>1) Aufgeführt sind die 20 häufigsten Wanderungsherkunftsländer im Jahr 2020 als darunter Positionen der in der Zeile Ingesamt augewiesenen Werte "Staatenlos" sowie "ungeklärt und ohne Angabe" werden in Sonstige Ziele geführt.</t>
+    <t>1) Aufgeführt sind die 20 häufigsten Wanderungsherkunftsländer im aktuellen Berichtsjahr. Die Werte für "Staatenlos" sowie "ungeklärt" werden in Sonstige Ziele geführt.</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
